--- a/data/trans_bre/P29A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Clase-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,22 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-19,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,58</t>
+          <t>-21,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>-23,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>-19,79</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-33,52%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-33,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-34,87%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-35,24%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>-26,99; -12,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -1,89</t>
+          <t>-29,55; -14,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>-30,36; -15,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -2,37</t>
+          <t>-25,93; -13,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-43,75; -21,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-44,23; -23,13</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-43,88; -25,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-43,89; -25,59</t>
         </is>
       </c>
     </row>
@@ -641,22 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-21,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-21,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-12,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>-11,97</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-35,91%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-36,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-20,9%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-25,42%</t>
         </is>
       </c>
     </row>
@@ -669,22 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 0,21</t>
+          <t>-28,54; -14,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,82; -5,34</t>
+          <t>-28,28; -12,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,21</t>
+          <t>-20,42; -5,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,44; -6,65</t>
+          <t>-18,29; -5,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-45,2; -25,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-46,3; -23,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-31,42; -9,74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-36,27; -12,67</t>
         </is>
       </c>
     </row>
@@ -701,22 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-26,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,55</t>
+          <t>-31,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-30,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>-7,3</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-43,95%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-55,42%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-48,82%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-23,11%</t>
         </is>
       </c>
     </row>
@@ -729,22 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 0,94</t>
+          <t>-34,24; -17,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 60,35</t>
+          <t>-38,89; -24,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 0,96</t>
+          <t>-39,41; -21,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 393,15</t>
+          <t>-27,74; 19,3</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-55,28; -29,28</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-65,74; -44,45</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-61,2; -35,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-55,02; 147,35</t>
         </is>
       </c>
     </row>
@@ -761,22 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-25,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-26,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-20,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-7,01</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-49,67%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-50,74%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-38,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-14,17%</t>
         </is>
       </c>
     </row>
@@ -789,22 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,56</t>
+          <t>-29,66; -21,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 10,97</t>
+          <t>-31,15; -22,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -0,58</t>
+          <t>-25,31; -17,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 13,29</t>
+          <t>-23,79; 19,05</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-56,43; -41,94</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-57,14; -43,46</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-44,94; -31,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 40,32</t>
         </is>
       </c>
     </row>
@@ -821,22 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-35,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-38,74</t>
+          <t>-36,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-25,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-44,58%</t>
+          <t>-33,38</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-61,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-63,56%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-51,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-68,14%</t>
         </is>
       </c>
     </row>
@@ -849,22 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -1,9</t>
+          <t>-41,97; -29,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-65,89; -19,96</t>
+          <t>-41,61; -30,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -1,9</t>
+          <t>-30,59; -20,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-74,31; -23,42</t>
+          <t>-39,65; -27,53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-67,76; -53,76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-68,98; -56,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-59,21; -43,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-76,05; -61,33</t>
         </is>
       </c>
     </row>
@@ -881,22 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>-29,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,54</t>
+          <t>-29,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>-30,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>-23,37</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-64,84%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-58,53%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-57,39%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-59,25%</t>
         </is>
       </c>
     </row>
@@ -909,22 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,13</t>
+          <t>-35,24; -23,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -6,41</t>
+          <t>-36,04; -22,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 8,91</t>
+          <t>-37,07; -23,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,8; -9,32</t>
+          <t>-34,25; -12,08</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-70,47; -57,18</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-64,8; -50,83</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,18; -48,83</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-69,88; -41,9</t>
         </is>
       </c>
     </row>
@@ -941,22 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-30,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-30,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-26,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-17,68</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-55,35%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-54,21%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-46,19%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-38,57%</t>
         </is>
       </c>
     </row>
@@ -969,22 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,5</t>
+          <t>-32,72; -28,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 21,92</t>
+          <t>-32,69; -28,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -0,51</t>
+          <t>-28,89; -24,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 40,86</t>
+          <t>-25,3; -0,97</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-58,26; -52,34</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-57,05; -51,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-49,53; -43,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-51,29; -1,92</t>
         </is>
       </c>
     </row>
@@ -998,12 +1317,12 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P29A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
